--- a/www.eia.gov/forecasts/steo/xls/Fig13.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig13.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Production (million barrels per day)</t>
@@ -50,7 +50,7 @@
     <t>Biodiesel</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Total Percent Change</t>
@@ -332,13 +332,13 @@
                   <c:v>0.6515648603000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.5282615841000009</c:v>
+                  <c:v>-0.53033262120000124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11764687730000034</c:v>
+                  <c:v>9.640433820000105E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29488420820000094</c:v>
+                  <c:v>0.54868414329999915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,13 +519,13 @@
                   <c:v>0.32776412609999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13739475910000021</c:v>
+                  <c:v>0.14300513650000024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21903518879999995</c:v>
+                  <c:v>0.26012978609999982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36736733149999967</c:v>
+                  <c:v>0.4304613459000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,13 +706,13 @@
                   <c:v>3.224086576000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9859348849999967E-2</c:v>
+                  <c:v>3.0457215519999914E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8250250999999391E-3</c:v>
+                  <c:v>1.2117782530000065E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0837481700000096E-2</c:v>
+                  <c:v>1.7216844000000897E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,10 +893,10 @@
                   <c:v>-1.0200711799999984E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6906482370999995E-2</c:v>
+                  <c:v>1.7655345729000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5362463880000009E-3</c:v>
+                  <c:v>3.7873830299999939E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.177951779999997E-3</c:v>
@@ -914,8 +914,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446182784"/>
-        <c:axId val="446183344"/>
+        <c:axId val="305445600"/>
+        <c:axId val="305446160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1156,19 +1156,19 @@
                   <c:v>13.338361000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.150935</c:v>
+                  <c:v>13.142232</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.489363000000001</c:v>
+                  <c:v>13.481816999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.528630388</c:v>
+                  <c:v>13.688196</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.499771901000001</c:v>
+                  <c:v>13.44270672</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>13.378066118</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -1490,79 +1490,79 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.499771901000001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.420859999999999</c:v>
+                  <c:v>13.378066118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.44463</c:v>
+                  <c:v>13.43519</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.64963</c:v>
+                  <c:v>13.668240000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.686809999999999</c:v>
+                  <c:v>13.63791</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.750360000000001</c:v>
+                  <c:v>13.75028</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.79204</c:v>
+                  <c:v>13.79557</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.87862</c:v>
+                  <c:v>13.92633</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.896190000000001</c:v>
+                  <c:v>13.9505</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.893610000000001</c:v>
+                  <c:v>13.94533</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.11168</c:v>
+                  <c:v>14.17699</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.268829999999999</c:v>
+                  <c:v>14.34563</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.275639999999999</c:v>
+                  <c:v>14.38176</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.27178</c:v>
+                  <c:v>14.42902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14.385490000000001</c:v>
+                  <c:v>14.58553</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.484170000000001</c:v>
+                  <c:v>14.72448</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14.46935</c:v>
+                  <c:v>14.75648</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14.540900000000001</c:v>
+                  <c:v>14.870620000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.543839999999999</c:v>
+                  <c:v>14.8849</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14.5047</c:v>
+                  <c:v>14.88893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.480370000000001</c:v>
+                  <c:v>14.862920000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.432090000000001</c:v>
+                  <c:v>14.815619999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.584960000000001</c:v>
+                  <c:v>14.99573</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.74109</c:v>
+                  <c:v>15.19506</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14.810359999999999</c:v>
+                  <c:v>15.252739999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,11 +1579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446181664"/>
-        <c:axId val="446182224"/>
+        <c:axId val="305444480"/>
+        <c:axId val="305445040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446181664"/>
+        <c:axId val="305444480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1600,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446182224"/>
+        <c:crossAx val="305445040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1611,7 +1611,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446182224"/>
+        <c:axId val="305445040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -1639,13 +1639,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446181664"/>
+        <c:crossAx val="305444480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446182784"/>
+        <c:axId val="305445600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1662,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446183344"/>
+        <c:crossAx val="305446160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,7 +1670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446183344"/>
+        <c:axId val="305446160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1687,7 +1687,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446182784"/>
+        <c:crossAx val="305445600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -1856,7 +1856,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1978,13 +1978,13 @@
             <v>0.6515648603000006</v>
           </cell>
           <cell r="K27">
-            <v>-0.5282615841000009</v>
+            <v>-0.53033262120000124</v>
           </cell>
           <cell r="L27">
-            <v>0.11764687730000034</v>
+            <v>9.640433820000105E-2</v>
           </cell>
           <cell r="M27">
-            <v>0.29488420820000094</v>
+            <v>0.54868414329999915</v>
           </cell>
         </row>
         <row r="28">
@@ -1992,13 +1992,13 @@
             <v>0.32776412609999994</v>
           </cell>
           <cell r="K28">
-            <v>0.13739475910000021</v>
+            <v>0.14300513650000024</v>
           </cell>
           <cell r="L28">
-            <v>0.21903518879999995</v>
+            <v>0.26012978609999982</v>
           </cell>
           <cell r="M28">
-            <v>0.36736733149999967</v>
+            <v>0.4304613459000004</v>
           </cell>
         </row>
         <row r="29">
@@ -2006,13 +2006,13 @@
             <v>3.224086576000007E-2</v>
           </cell>
           <cell r="K29">
-            <v>2.9859348849999967E-2</v>
+            <v>3.0457215519999914E-2</v>
           </cell>
           <cell r="L29">
-            <v>8.8250250999999391E-3</v>
+            <v>1.2117782530000065E-2</v>
           </cell>
           <cell r="M29">
-            <v>1.0837481700000096E-2</v>
+            <v>1.7216844000000897E-3</v>
           </cell>
         </row>
         <row r="30">
@@ -2020,10 +2020,10 @@
             <v>-1.0200711799999984E-3</v>
           </cell>
           <cell r="K30">
-            <v>1.6906482370999995E-2</v>
+            <v>1.7655345729000002E-2</v>
           </cell>
           <cell r="L30">
-            <v>4.5362463880000009E-3</v>
+            <v>3.7873830299999939E-3</v>
           </cell>
           <cell r="M30">
             <v>7.177951779999997E-3</v>
@@ -2254,7 +2254,7 @@
             <v>42614</v>
           </cell>
           <cell r="C55">
-            <v>13.150935</v>
+            <v>13.142232</v>
           </cell>
           <cell r="D55" t="e">
             <v>#N/A</v>
@@ -2265,7 +2265,7 @@
             <v>42644</v>
           </cell>
           <cell r="C56">
-            <v>13.489363000000001</v>
+            <v>13.481816999999999</v>
           </cell>
           <cell r="D56" t="e">
             <v>#N/A</v>
@@ -2276,7 +2276,7 @@
             <v>42675</v>
           </cell>
           <cell r="C57">
-            <v>13.528630388</v>
+            <v>13.688196</v>
           </cell>
           <cell r="D57" t="e">
             <v>#N/A</v>
@@ -2287,21 +2287,21 @@
             <v>42705</v>
           </cell>
           <cell r="C58">
-            <v>13.499771901000001</v>
-          </cell>
-          <cell r="D58">
-            <v>13.499771901000001</v>
+            <v>13.44270672</v>
+          </cell>
+          <cell r="D58" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
             <v>42736</v>
           </cell>
-          <cell r="C59" t="e">
-            <v>#N/A</v>
+          <cell r="C59">
+            <v>13.378066118</v>
           </cell>
           <cell r="D59">
-            <v>13.420859999999999</v>
+            <v>13.378066118</v>
           </cell>
         </row>
         <row r="60">
@@ -2312,7 +2312,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D60">
-            <v>13.44463</v>
+            <v>13.43519</v>
           </cell>
         </row>
         <row r="61">
@@ -2323,7 +2323,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D61">
-            <v>13.64963</v>
+            <v>13.668240000000001</v>
           </cell>
         </row>
         <row r="62">
@@ -2334,7 +2334,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D62">
-            <v>13.686809999999999</v>
+            <v>13.63791</v>
           </cell>
         </row>
         <row r="63">
@@ -2345,7 +2345,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D63">
-            <v>13.750360000000001</v>
+            <v>13.75028</v>
           </cell>
         </row>
         <row r="64">
@@ -2356,7 +2356,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D64">
-            <v>13.79204</v>
+            <v>13.79557</v>
           </cell>
         </row>
         <row r="65">
@@ -2367,7 +2367,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D65">
-            <v>13.87862</v>
+            <v>13.92633</v>
           </cell>
         </row>
         <row r="66">
@@ -2378,7 +2378,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D66">
-            <v>13.896190000000001</v>
+            <v>13.9505</v>
           </cell>
         </row>
         <row r="67">
@@ -2389,7 +2389,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D67">
-            <v>13.893610000000001</v>
+            <v>13.94533</v>
           </cell>
         </row>
         <row r="68">
@@ -2400,7 +2400,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D68">
-            <v>14.11168</v>
+            <v>14.17699</v>
           </cell>
         </row>
         <row r="69">
@@ -2411,7 +2411,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D69">
-            <v>14.268829999999999</v>
+            <v>14.34563</v>
           </cell>
         </row>
         <row r="70">
@@ -2422,7 +2422,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D70">
-            <v>14.275639999999999</v>
+            <v>14.38176</v>
           </cell>
         </row>
         <row r="71">
@@ -2433,7 +2433,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D71">
-            <v>14.27178</v>
+            <v>14.42902</v>
           </cell>
         </row>
         <row r="72">
@@ -2444,7 +2444,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D72">
-            <v>14.385490000000001</v>
+            <v>14.58553</v>
           </cell>
         </row>
         <row r="73">
@@ -2455,7 +2455,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D73">
-            <v>14.484170000000001</v>
+            <v>14.72448</v>
           </cell>
         </row>
         <row r="74">
@@ -2466,7 +2466,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D74">
-            <v>14.46935</v>
+            <v>14.75648</v>
           </cell>
         </row>
         <row r="75">
@@ -2477,7 +2477,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D75">
-            <v>14.540900000000001</v>
+            <v>14.870620000000001</v>
           </cell>
         </row>
         <row r="76">
@@ -2488,7 +2488,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D76">
-            <v>14.543839999999999</v>
+            <v>14.8849</v>
           </cell>
         </row>
         <row r="77">
@@ -2499,7 +2499,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D77">
-            <v>14.5047</v>
+            <v>14.88893</v>
           </cell>
         </row>
         <row r="78">
@@ -2510,7 +2510,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D78">
-            <v>14.480370000000001</v>
+            <v>14.862920000000001</v>
           </cell>
         </row>
         <row r="79">
@@ -2521,7 +2521,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D79">
-            <v>14.432090000000001</v>
+            <v>14.815619999999999</v>
           </cell>
         </row>
         <row r="80">
@@ -2532,7 +2532,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D80">
-            <v>14.584960000000001</v>
+            <v>14.99573</v>
           </cell>
         </row>
         <row r="81">
@@ -2543,7 +2543,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D81">
-            <v>14.74109</v>
+            <v>15.19506</v>
           </cell>
         </row>
         <row r="82">
@@ -2554,7 +2554,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D82">
-            <v>14.810359999999999</v>
+            <v>15.252739999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2922,13 +2922,13 @@
         <v>9.4151095726000005</v>
       </c>
       <c r="F27" s="10">
-        <v>8.8868479884999996</v>
+        <v>8.8847769513999992</v>
       </c>
       <c r="G27" s="10">
-        <v>9.0044948657999999</v>
+        <v>8.9811812896000003</v>
       </c>
       <c r="H27" s="10">
-        <v>9.2993790740000009</v>
+        <v>9.5298654328999994</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="12">
@@ -2937,15 +2937,15 @@
       </c>
       <c r="K27" s="12">
         <f t="shared" si="0"/>
-        <v>-0.5282615841000009</v>
+        <v>-0.53033262120000124</v>
       </c>
       <c r="L27" s="12">
         <f t="shared" si="0"/>
-        <v>0.11764687730000034</v>
+        <v>9.640433820000105E-2</v>
       </c>
       <c r="M27" s="12">
         <f t="shared" si="0"/>
-        <v>0.29488420820000094</v>
+        <v>0.54868414329999915</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -2959,13 +2959,13 @@
         <v>3.3422785150999998</v>
       </c>
       <c r="F28" s="10">
-        <v>3.4796732742000001</v>
+        <v>3.4852836516000001</v>
       </c>
       <c r="G28" s="10">
-        <v>3.698708463</v>
+        <v>3.7454134376999999</v>
       </c>
       <c r="H28" s="10">
-        <v>4.0660757944999997</v>
+        <v>4.1758747836000003</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12">
@@ -2974,15 +2974,15 @@
       </c>
       <c r="K28" s="12">
         <f t="shared" si="0"/>
-        <v>0.13739475910000021</v>
+        <v>0.14300513650000024</v>
       </c>
       <c r="L28" s="12">
         <f t="shared" si="0"/>
-        <v>0.21903518879999995</v>
+        <v>0.26012978609999982</v>
       </c>
       <c r="M28" s="12">
         <f t="shared" si="0"/>
-        <v>0.36736733149999967</v>
+        <v>0.4304613459000004</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -2996,13 +2996,13 @@
         <v>0.96588712055000003</v>
       </c>
       <c r="F29" s="10">
-        <v>0.9957464694</v>
+        <v>0.99634433606999995</v>
       </c>
       <c r="G29" s="10">
-        <v>1.0045714944999999</v>
+        <v>1.0084621186</v>
       </c>
       <c r="H29" s="10">
-        <v>1.0154089762</v>
+        <v>1.0101838030000001</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="12">
@@ -3011,15 +3011,15 @@
       </c>
       <c r="K29" s="12">
         <f t="shared" si="0"/>
-        <v>2.9859348849999967E-2</v>
+        <v>3.0457215519999914E-2</v>
       </c>
       <c r="L29" s="12">
         <f t="shared" si="0"/>
-        <v>8.8250250999999391E-3</v>
+        <v>1.2117782530000065E-2</v>
       </c>
       <c r="M29" s="12">
         <f t="shared" si="0"/>
-        <v>1.0837481700000096E-2</v>
+        <v>1.7216844000000897E-3</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
         <v>8.2409704121000002E-2</v>
       </c>
       <c r="F30" s="15">
-        <v>9.9316186491999997E-2</v>
+        <v>0.10006504985</v>
       </c>
       <c r="G30" s="15">
         <v>0.10385243288</v>
@@ -3049,11 +3049,11 @@
       </c>
       <c r="K30" s="17">
         <f>F30-E30</f>
-        <v>1.6906482370999995E-2</v>
+        <v>1.7655345729000002E-2</v>
       </c>
       <c r="L30" s="17">
         <f>G30-F30</f>
-        <v>4.5362463880000009E-3</v>
+        <v>3.7873830299999939E-3</v>
       </c>
       <c r="M30" s="17">
         <f>H30-G30</f>
@@ -3070,15 +3070,15 @@
       </c>
       <c r="K31" s="18">
         <f>F27/E27-1</f>
-        <v>-5.6107853023543819E-2</v>
+        <v>-5.6327822539992911E-2</v>
       </c>
       <c r="L31" s="18">
         <f>G27/F27-1</f>
-        <v>1.3238313230094834E-2</v>
+        <v>1.0850507415924637E-2</v>
       </c>
       <c r="M31" s="18">
         <f>H27/G27-1</f>
-        <v>3.2748556425969078E-2</v>
+        <v>6.1092647571357128E-2</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -3320,7 +3320,7 @@
         <v>42614</v>
       </c>
       <c r="C55" s="10">
-        <v>13.150935</v>
+        <v>13.142232</v>
       </c>
       <c r="D55" s="10" t="e">
         <v>#N/A</v>
@@ -3331,7 +3331,7 @@
         <v>42644</v>
       </c>
       <c r="C56" s="10">
-        <v>13.489363000000001</v>
+        <v>13.481816999999999</v>
       </c>
       <c r="D56" s="10" t="e">
         <v>#N/A</v>
@@ -3342,7 +3342,7 @@
         <v>42675</v>
       </c>
       <c r="C57" s="10">
-        <v>13.528630388</v>
+        <v>13.688196</v>
       </c>
       <c r="D57" s="10" t="e">
         <v>#N/A</v>
@@ -3353,21 +3353,21 @@
         <v>42705</v>
       </c>
       <c r="C58" s="10">
-        <v>13.499771901000001</v>
-      </c>
-      <c r="D58" s="10">
-        <v>13.499771901000001</v>
+        <v>13.44270672</v>
+      </c>
+      <c r="D58" s="10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="22">
         <v>42736</v>
       </c>
-      <c r="C59" s="10" t="e">
-        <v>#N/A</v>
+      <c r="C59" s="10">
+        <v>13.378066118</v>
       </c>
       <c r="D59" s="10">
-        <v>13.420859999999999</v>
+        <v>13.378066118</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
         <v>#N/A</v>
       </c>
       <c r="D60" s="10">
-        <v>13.44463</v>
+        <v>13.43519</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -3389,7 +3389,7 @@
         <v>#N/A</v>
       </c>
       <c r="D61" s="10">
-        <v>13.64963</v>
+        <v>13.668240000000001</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="10">
-        <v>13.686809999999999</v>
+        <v>13.63791</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -3411,7 +3411,7 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="10">
-        <v>13.750360000000001</v>
+        <v>13.75028</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -3422,7 +3422,7 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="10">
-        <v>13.79204</v>
+        <v>13.79557</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -3433,7 +3433,7 @@
         <v>#N/A</v>
       </c>
       <c r="D65" s="10">
-        <v>13.87862</v>
+        <v>13.92633</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -3444,7 +3444,7 @@
         <v>#N/A</v>
       </c>
       <c r="D66" s="10">
-        <v>13.896190000000001</v>
+        <v>13.9505</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>#N/A</v>
       </c>
       <c r="D67" s="10">
-        <v>13.893610000000001</v>
+        <v>13.94533</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3466,7 +3466,7 @@
         <v>#N/A</v>
       </c>
       <c r="D68" s="10">
-        <v>14.11168</v>
+        <v>14.17699</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -3477,7 +3477,7 @@
         <v>#N/A</v>
       </c>
       <c r="D69" s="10">
-        <v>14.268829999999999</v>
+        <v>14.34563</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -3488,7 +3488,7 @@
         <v>#N/A</v>
       </c>
       <c r="D70" s="10">
-        <v>14.275639999999999</v>
+        <v>14.38176</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -3499,7 +3499,7 @@
         <v>#N/A</v>
       </c>
       <c r="D71" s="10">
-        <v>14.27178</v>
+        <v>14.42902</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -3510,7 +3510,7 @@
         <v>#N/A</v>
       </c>
       <c r="D72" s="10">
-        <v>14.385490000000001</v>
+        <v>14.58553</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -3521,7 +3521,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" s="10">
-        <v>14.484170000000001</v>
+        <v>14.72448</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" s="10">
-        <v>14.46935</v>
+        <v>14.75648</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
         <v>#N/A</v>
       </c>
       <c r="D75" s="10">
-        <v>14.540900000000001</v>
+        <v>14.870620000000001</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -3554,7 +3554,7 @@
         <v>#N/A</v>
       </c>
       <c r="D76" s="10">
-        <v>14.543839999999999</v>
+        <v>14.8849</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -3565,7 +3565,7 @@
         <v>#N/A</v>
       </c>
       <c r="D77" s="10">
-        <v>14.5047</v>
+        <v>14.88893</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
         <v>#N/A</v>
       </c>
       <c r="D78" s="10">
-        <v>14.480370000000001</v>
+        <v>14.862920000000001</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -3587,7 +3587,7 @@
         <v>#N/A</v>
       </c>
       <c r="D79" s="10">
-        <v>14.432090000000001</v>
+        <v>14.815619999999999</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -3598,7 +3598,7 @@
         <v>#N/A</v>
       </c>
       <c r="D80" s="10">
-        <v>14.584960000000001</v>
+        <v>14.99573</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -3609,7 +3609,7 @@
         <v>#N/A</v>
       </c>
       <c r="D81" s="10">
-        <v>14.74109</v>
+        <v>15.19506</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -3620,7 +3620,7 @@
         <v>#N/A</v>
       </c>
       <c r="D82" s="10">
-        <v>14.810359999999999</v>
+        <v>15.252739999999999</v>
       </c>
     </row>
   </sheetData>
